--- a/myAPI/4_PIG_roadtest/layout.xlsx
+++ b/myAPI/4_PIG_roadtest/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\4_PIG_roadtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBF52B-2CC0-4F2E-9C2F-55B71059882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E669E0-8659-475E-B407-7936AC9AEF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,24 +98,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -135,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -165,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -572,7 +565,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L5" sqref="L5:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,28 +661,28 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="H2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -705,16 +698,15 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -730,16 +722,15 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -755,16 +746,15 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -780,16 +770,15 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -805,16 +794,15 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -830,16 +818,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -855,16 +842,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -880,16 +866,15 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -905,16 +890,15 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -930,16 +914,15 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">

--- a/myAPI/4_PIG_roadtest/layout.xlsx
+++ b/myAPI/4_PIG_roadtest/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\4_PIG_roadtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\4_PIG_roadtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E669E0-8659-475E-B407-7936AC9AEF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB49574-FD96-486B-9C80-17C83D6451F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22395" yWindow="5070" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -445,12 +445,12 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="3.5703125" customWidth="1"/>
+    <col min="1" max="19" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -482,20 +482,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -506,7 +506,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -528,27 +528,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -565,15 +565,15 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:T13"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="3.5703125" customWidth="1"/>
+    <col min="1" max="22" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -664,11 +664,19 @@
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -680,11 +688,20 @@
       <c r="G3" s="10"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -699,16 +716,17 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="11"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -722,17 +740,8 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -755,8 +764,9 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -779,8 +789,9 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="12"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -803,8 +814,9 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -875,8 +889,9 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -899,8 +914,9 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -923,13 +939,14 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>

--- a/myAPI/4_PIG_roadtest/layout.xlsx
+++ b/myAPI/4_PIG_roadtest/layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\myAPI\4_PIG_roadtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\4_PIG_roadtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB49574-FD96-486B-9C80-17C83D6451F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC03562-9B77-49A2-8BA2-A5478082E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22395" yWindow="5070" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -445,12 +445,12 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="3.625" customWidth="1"/>
+    <col min="1" max="19" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -482,20 +482,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -506,7 +506,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -528,27 +528,27 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -565,15 +565,15 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="3.625" customWidth="1"/>
+    <col min="1" max="22" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -718,15 +718,13 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O4" s="10"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -740,8 +738,18 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -766,7 +774,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -791,7 +799,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -816,7 +824,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -841,7 +849,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -866,7 +874,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -891,7 +899,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -916,7 +924,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -941,12 +949,12 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
